--- a/data/trans_orig/PCS12_SP_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>330538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306765</v>
+        <v>306286</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353800</v>
+        <v>355314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5658523529549235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5251561440015063</v>
+        <v>0.5243355461807013</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6056763130208603</v>
+        <v>0.6082669661563089</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>627</v>
@@ -765,19 +765,19 @@
         <v>654446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>626429</v>
+        <v>626455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>681775</v>
+        <v>683975</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7095553763815998</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6791783843833904</v>
+        <v>0.6792072712863882</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7391852501796852</v>
+        <v>0.7415705515358914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>957</v>
@@ -786,19 +786,19 @@
         <v>984984</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>943749</v>
+        <v>949647</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1020050</v>
+        <v>1024987</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6538339658545306</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6264625136372579</v>
+        <v>0.6303775959443616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6771109374849654</v>
+        <v>0.6803881967343564</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>253603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230341</v>
+        <v>228827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>277376</v>
+        <v>277855</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4341476470450765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3943236869791398</v>
+        <v>0.3917330338436911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4748438559984937</v>
+        <v>0.4756644538192987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>258</v>
@@ -836,19 +836,19 @@
         <v>267887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>240558</v>
+        <v>238358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295904</v>
+        <v>295878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2904446236184001</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2608147498203149</v>
+        <v>0.2584294484641086</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3208216156166095</v>
+        <v>0.3207927287136117</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>502</v>
@@ -857,19 +857,19 @@
         <v>521490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>486424</v>
+        <v>481487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562725</v>
+        <v>556827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3461660341454694</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3228890625150346</v>
+        <v>0.3196118032656437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3735374863627423</v>
+        <v>0.3696224040556385</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>465638</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>430945</v>
+        <v>434982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>501519</v>
+        <v>499950</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4319882351194261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.399802758427581</v>
+        <v>0.4035476974133229</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4652767386986692</v>
+        <v>0.4638214218505718</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>553</v>
@@ -982,19 +982,19 @@
         <v>570793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>540387</v>
+        <v>538692</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>603669</v>
+        <v>602941</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5397375236604035</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.510986316094908</v>
+        <v>0.5093827873213821</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5708248164748521</v>
+        <v>0.5701369106103201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1013</v>
@@ -1003,19 +1003,19 @@
         <v>1036430</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>993338</v>
+        <v>985805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1087782</v>
+        <v>1084158</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.485349318749323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4651694666651666</v>
+        <v>0.4616417538681372</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5093968915692429</v>
+        <v>0.5076996960508136</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>612256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>576375</v>
+        <v>577944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>646949</v>
+        <v>642912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5680117648805739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5347232613013306</v>
+        <v>0.5361785781494279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6001972415724187</v>
+        <v>0.5964523025866768</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>475</v>
@@ -1053,19 +1053,19 @@
         <v>486745</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>453869</v>
+        <v>454597</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>517151</v>
+        <v>518846</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4602624763395965</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4291751835251478</v>
+        <v>0.4298630893896798</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4890136839050919</v>
+        <v>0.4906172126786179</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1070</v>
@@ -1074,19 +1074,19 @@
         <v>1099002</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1047650</v>
+        <v>1051274</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1142094</v>
+        <v>1149627</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.514650681250677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4906031084307571</v>
+        <v>0.4923003039491866</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5348305333348333</v>
+        <v>0.538358246131863</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>423939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>394088</v>
+        <v>391593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>458506</v>
+        <v>457517</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3779794391990283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3513638960746734</v>
+        <v>0.3491399321996111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4087987002477785</v>
+        <v>0.4079164876950248</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>496</v>
@@ -1199,19 +1199,19 @@
         <v>506778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>475732</v>
+        <v>474933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>541485</v>
+        <v>536331</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5098680739773382</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4786323491146499</v>
+        <v>0.4778284739472824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5447867387497639</v>
+        <v>0.5396006626012344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>922</v>
@@ -1220,19 +1220,19 @@
         <v>930718</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>883886</v>
+        <v>884292</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>979043</v>
+        <v>976865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4399445718468637</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4178077012763863</v>
+        <v>0.4179996531871189</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4627876630315722</v>
+        <v>0.4617581734154333</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>697655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>663088</v>
+        <v>664077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>727506</v>
+        <v>730001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6220205608009717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.591201299752221</v>
+        <v>0.5920835123049751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6486361039253263</v>
+        <v>0.6508600678003889</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>486</v>
@@ -1270,19 +1270,19 @@
         <v>487162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>452455</v>
+        <v>457609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>518208</v>
+        <v>519007</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4901319260226618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4552132612502361</v>
+        <v>0.4603993373987657</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5213676508853501</v>
+        <v>0.5221715260527179</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1163</v>
@@ -1291,19 +1291,19 @@
         <v>1184816</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1136491</v>
+        <v>1138669</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1231648</v>
+        <v>1231242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5600554281531364</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5372123369684279</v>
+        <v>0.5382418265845665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.582192298723614</v>
+        <v>0.582000346812881</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>145528</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125802</v>
+        <v>125760</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166210</v>
+        <v>167687</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3254198193475856</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2813100742815692</v>
+        <v>0.281217039935154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.371668696154611</v>
+        <v>0.3749719454253788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -1416,19 +1416,19 @@
         <v>157916</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>136873</v>
+        <v>140716</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>174467</v>
+        <v>176223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4628826920675467</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.401202626536159</v>
+        <v>0.4124670327985829</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5113974896777972</v>
+        <v>0.5165435860297256</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>298</v>
@@ -1437,19 +1437,19 @@
         <v>303444</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>277915</v>
+        <v>276239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>332917</v>
+        <v>330363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3849062343757547</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3525235132574141</v>
+        <v>0.350397603447593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4222921352219415</v>
+        <v>0.4190521825698379</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>301672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>280990</v>
+        <v>279513</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321398</v>
+        <v>321440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6745801806524144</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6283313038453887</v>
+        <v>0.6250280545746212</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7186899257184307</v>
+        <v>0.7187829600648461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>184</v>
@@ -1487,19 +1487,19 @@
         <v>183242</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166691</v>
+        <v>164935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204285</v>
+        <v>200442</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5371173079324533</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4886025103222029</v>
+        <v>0.4834564139702743</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5987973734638411</v>
+        <v>0.5875329672014171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>477</v>
@@ -1508,19 +1508,19 @@
         <v>484914</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>455441</v>
+        <v>457995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>510443</v>
+        <v>512119</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6150937656242453</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5777078647780586</v>
+        <v>0.5809478174301621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6474764867425861</v>
+        <v>0.649602396552407</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1365642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1312456</v>
+        <v>1309709</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1417511</v>
+        <v>1422939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4226910116894012</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4062288833107704</v>
+        <v>0.405378693672835</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4387453084753739</v>
+        <v>0.4404253551056464</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1831</v>
@@ -1633,19 +1633,19 @@
         <v>1889934</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1831803</v>
+        <v>1833034</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1944680</v>
+        <v>1948240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5701210826398243</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5525852616866095</v>
+        <v>0.5529567091323948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5866360632399235</v>
+        <v>0.5877099059210715</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3190</v>
@@ -1654,19 +1654,19 @@
         <v>3255576</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3170811</v>
+        <v>3163608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3340458</v>
+        <v>3333381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4973535783889735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.48440409539276</v>
+        <v>0.4833036235885834</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5103210033385125</v>
+        <v>0.5092398035401874</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1865187</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1813318</v>
+        <v>1807890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1918373</v>
+        <v>1921120</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5773089883105988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.561254691524626</v>
+        <v>0.5595746448943536</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5937711166892294</v>
+        <v>0.5946213063271649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1403</v>
@@ -1704,19 +1704,19 @@
         <v>1425035</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1370289</v>
+        <v>1366729</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1483166</v>
+        <v>1481935</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4298789173601757</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4133639367600769</v>
+        <v>0.4122900940789284</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4474147383133905</v>
+        <v>0.4470432908676049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3212</v>
@@ -1725,19 +1725,19 @@
         <v>3290222</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3205340</v>
+        <v>3212417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3374987</v>
+        <v>3382190</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5026464216110265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4896789966614875</v>
+        <v>0.4907601964598126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.51559590460724</v>
+        <v>0.5166963764114166</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>488042</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>454433</v>
+        <v>455742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>522797</v>
+        <v>522132</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4675024613607843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4353080768878408</v>
+        <v>0.4365619964655953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5007948958681587</v>
+        <v>0.5001571424564678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>609</v>
@@ -2090,19 +2090,19 @@
         <v>661955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>627256</v>
+        <v>626799</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>694340</v>
+        <v>695630</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.591068850328207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.560085828114072</v>
+        <v>0.5596781596741973</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6199859555015061</v>
+        <v>0.6211384851318323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1057</v>
@@ -2111,19 +2111,19 @@
         <v>1149997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1103554</v>
+        <v>1103544</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1198047</v>
+        <v>1194759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5314554440867727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5099926083226737</v>
+        <v>0.5099877499100181</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5536612305872672</v>
+        <v>0.5521417661940269</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>555893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>521138</v>
+        <v>521803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>589502</v>
+        <v>588193</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5324975386392158</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4992051041318412</v>
+        <v>0.499842857543532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5646919231121591</v>
+        <v>0.5634380035344045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>422</v>
@@ -2161,19 +2161,19 @@
         <v>457973</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>425588</v>
+        <v>424298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>492672</v>
+        <v>493129</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4089311496717931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3800140444984939</v>
+        <v>0.3788615148681677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4399141718859279</v>
+        <v>0.4403218403258029</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>952</v>
@@ -2182,19 +2182,19 @@
         <v>1013866</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>965816</v>
+        <v>969104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1060309</v>
+        <v>1060319</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4685445559132274</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4463387694127328</v>
+        <v>0.4478582338059732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4900073916773263</v>
+        <v>0.4900122500899819</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>412142</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>383145</v>
+        <v>380271</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>444610</v>
+        <v>446734</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4218127935367341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3921357681474414</v>
+        <v>0.3891935749217231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4550430067990641</v>
+        <v>0.4572162959316637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>551</v>
@@ -2307,19 +2307,19 @@
         <v>595457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>564148</v>
+        <v>558760</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>630358</v>
+        <v>626884</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5441627617893969</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5155510674307376</v>
+        <v>0.5106276188766973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5760576066794781</v>
+        <v>0.5728827500071549</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>934</v>
@@ -2328,19 +2328,19 @@
         <v>1007599</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>954606</v>
+        <v>959913</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1054413</v>
+        <v>1051526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4864488586312883</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4608649201201338</v>
+        <v>0.4634271642584873</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5090501991522794</v>
+        <v>0.5076563261260585</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>564931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>532463</v>
+        <v>530339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>593928</v>
+        <v>596802</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5781872064632658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.544956993200936</v>
+        <v>0.5427837040683363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6078642318525587</v>
+        <v>0.6108064250782769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>469</v>
@@ -2378,19 +2378,19 @@
         <v>498805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463904</v>
+        <v>467378</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>530114</v>
+        <v>535502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4558372382106031</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.423942393320522</v>
+        <v>0.4271172499928451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4844489325692626</v>
+        <v>0.4893723811233028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1010</v>
@@ -2399,19 +2399,19 @@
         <v>1063736</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1016922</v>
+        <v>1019809</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1116729</v>
+        <v>1111422</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5135511413687117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4909498008477206</v>
+        <v>0.4923436738739415</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5391350798798662</v>
+        <v>0.5365728357415128</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>390315</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>354832</v>
+        <v>358718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>420732</v>
+        <v>418909</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4409768508530522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4008878888698307</v>
+        <v>0.4052783835648837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4753421620461526</v>
+        <v>0.473281851684685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>408</v>
@@ -2524,19 +2524,19 @@
         <v>437218</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>408940</v>
+        <v>406610</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>468192</v>
+        <v>466090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4992232281717714</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4669356158439519</v>
+        <v>0.4642749799272184</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5345901211485288</v>
+        <v>0.5321899948654464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>765</v>
@@ -2545,19 +2545,19 @@
         <v>827533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>784967</v>
+        <v>782159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>870894</v>
+        <v>868577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4699459099119158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4457733279843837</v>
+        <v>0.4441788091691353</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4945700498183362</v>
+        <v>0.4932542513561353</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>494800</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464383</v>
+        <v>466206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>530283</v>
+        <v>526397</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5590231491469478</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5246578379538475</v>
+        <v>0.526718148315315</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5991121111301693</v>
+        <v>0.5947216164351162</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>413</v>
@@ -2595,19 +2595,19 @@
         <v>438578</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>407604</v>
+        <v>409706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>466856</v>
+        <v>469186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5007767718282286</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4654098788514711</v>
+        <v>0.4678100051345537</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.533064384156048</v>
+        <v>0.5357250200727817</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>886</v>
@@ -2616,19 +2616,19 @@
         <v>933378</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>890017</v>
+        <v>892334</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>975944</v>
+        <v>978752</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5300540900880842</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5054299501816638</v>
+        <v>0.5067457486438648</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5542266720156163</v>
+        <v>0.5558211908308648</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>207183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185265</v>
+        <v>185580</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230679</v>
+        <v>229857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4118749371215955</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3683035405188217</v>
+        <v>0.3689289461820613</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4585850801443468</v>
+        <v>0.4569522205479828</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -2741,19 +2741,19 @@
         <v>223792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>201782</v>
+        <v>203438</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>245213</v>
+        <v>247062</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4943097408556052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4456943035580333</v>
+        <v>0.4493527133975986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5416253838965511</v>
+        <v>0.5457088482323705</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>390</v>
@@ -2762,19 +2762,19 @@
         <v>430974</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>401133</v>
+        <v>397293</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>465476</v>
+        <v>461472</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4509236915190833</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4197012712118888</v>
+        <v>0.4156834043637551</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4870227017979782</v>
+        <v>0.4828340215389115</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>295840</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>272344</v>
+        <v>273166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317758</v>
+        <v>317443</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5881250628784045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5414149198556527</v>
+        <v>0.5430477794520171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.631696459481178</v>
+        <v>0.6310710538179386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>212</v>
@@ -2812,19 +2812,19 @@
         <v>228944</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>207523</v>
+        <v>205674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>250954</v>
+        <v>249298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5056902591443948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4583746161034489</v>
+        <v>0.4542911517676295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5543056964419668</v>
+        <v>0.5506472866024013</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>483</v>
@@ -2833,19 +2833,19 @@
         <v>524784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>490282</v>
+        <v>494286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>554625</v>
+        <v>558465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5490763084809167</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5129772982020219</v>
+        <v>0.5171659784610885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5802987287881112</v>
+        <v>0.5843165956362448</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1497681</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1433593</v>
+        <v>1436533</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1559637</v>
+        <v>1553002</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4393129160776427</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.420513927680265</v>
+        <v>0.4213764109906611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4574862366623112</v>
+        <v>0.4555399016853598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1768</v>
@@ -2958,19 +2958,19 @@
         <v>1918421</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1852774</v>
+        <v>1852432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1973412</v>
+        <v>1976525</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5415103853111988</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5229804340436046</v>
+        <v>0.5228837818295218</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5570326231064335</v>
+        <v>0.5579113243727533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3146</v>
@@ -2979,19 +2979,19 @@
         <v>3416102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3323346</v>
+        <v>3330021</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3492530</v>
+        <v>3506331</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4913934865424235</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4780509034084673</v>
+        <v>0.479011051764362</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5023874006701019</v>
+        <v>0.5043725678067402</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1911464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1849508</v>
+        <v>1856143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1975552</v>
+        <v>1972612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5606870839223573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5425137633376887</v>
+        <v>0.5444600983146402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.579486072319735</v>
+        <v>0.578623589009339</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1516</v>
@@ -3029,19 +3029,19 @@
         <v>1624301</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1569310</v>
+        <v>1566197</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1689948</v>
+        <v>1690290</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4584896146888012</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4429673768935665</v>
+        <v>0.4420886756272465</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4770195659563954</v>
+        <v>0.4771162181704781</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3331</v>
@@ -3050,19 +3050,19 @@
         <v>3535765</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3459337</v>
+        <v>3445536</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3628521</v>
+        <v>3621846</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5086065134575765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4976125993298981</v>
+        <v>0.4956274321932598</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5219490965915327</v>
+        <v>0.520988948235638</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>476224</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>444229</v>
+        <v>441455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>509408</v>
+        <v>510712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4221857036487832</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3938212122466049</v>
+        <v>0.3913618740422961</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4516038299671655</v>
+        <v>0.4527604858131981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>603</v>
@@ -3415,19 +3415,19 @@
         <v>672149</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>636254</v>
+        <v>638164</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>708281</v>
+        <v>709945</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5336373555030001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5051391560024407</v>
+        <v>0.5066557596666119</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5623233018119804</v>
+        <v>0.5636448360023245</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1054</v>
@@ -3436,19 +3436,19 @@
         <v>1148373</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1100844</v>
+        <v>1099122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1197891</v>
+        <v>1197744</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4809822348383498</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4610750992210078</v>
+        <v>0.4603539578584983</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5017221808850321</v>
+        <v>0.5016606701338933</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>651773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>618589</v>
+        <v>617285</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>683768</v>
+        <v>686542</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5778142963512168</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5483961700328346</v>
+        <v>0.5472395141868019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6061787877533952</v>
+        <v>0.6086381259577038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>585</v>
@@ -3486,19 +3486,19 @@
         <v>587412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>551280</v>
+        <v>549616</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>623307</v>
+        <v>621397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4663626444969999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4376766981880195</v>
+        <v>0.4363551639976755</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4948608439975593</v>
+        <v>0.4933442403333881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1200</v>
@@ -3507,19 +3507,19 @@
         <v>1239185</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1189667</v>
+        <v>1189814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1286714</v>
+        <v>1288436</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5190177651616502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4982778191149677</v>
+        <v>0.4983393298661067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5389249007789922</v>
+        <v>0.5396460421415016</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>321226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>293944</v>
+        <v>295020</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>352923</v>
+        <v>352857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.353451553161927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3234333244631526</v>
+        <v>0.3246167182659849</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3883285933659976</v>
+        <v>0.3882561800698471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>399</v>
@@ -3632,19 +3632,19 @@
         <v>442703</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>410334</v>
+        <v>410918</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>476808</v>
+        <v>473615</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4398550420855789</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4076940986414239</v>
+        <v>0.4082740358583187</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4737406682309719</v>
+        <v>0.4705684913626496</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>713</v>
@@ -3653,19 +3653,19 @@
         <v>763929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>722767</v>
+        <v>718368</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>808924</v>
+        <v>807112</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3988559147324492</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3773650271324406</v>
+        <v>0.37506838941629</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4223484329145826</v>
+        <v>0.4214025310166127</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>587599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>555902</v>
+        <v>555968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>614881</v>
+        <v>613805</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.646548446838073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6116714066340024</v>
+        <v>0.611743819930153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6765666755368475</v>
+        <v>0.6753832817340152</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>552</v>
@@ -3703,19 +3703,19 @@
         <v>563772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>529667</v>
+        <v>532860</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>596141</v>
+        <v>595557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5601449579144211</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5262593317690279</v>
+        <v>0.5294315086373504</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5923059013585756</v>
+        <v>0.5917259641416813</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1119</v>
@@ -3724,19 +3724,19 @@
         <v>1151371</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1106376</v>
+        <v>1108188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1192533</v>
+        <v>1196932</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6011440852675508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5776515670854174</v>
+        <v>0.5785974689833873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6226349728675594</v>
+        <v>0.6249316105837101</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>311279</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>283423</v>
+        <v>284551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>337696</v>
+        <v>340972</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3778767652810589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3440606910893204</v>
+        <v>0.3454294207958918</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4099454262000062</v>
+        <v>0.4139225550330937</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>321</v>
@@ -3849,19 +3849,19 @@
         <v>357854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>329032</v>
+        <v>329228</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>386840</v>
+        <v>386459</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4641068447342315</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4267276369852649</v>
+        <v>0.4269821163479033</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.501699755667449</v>
+        <v>0.5012058234657077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>626</v>
@@ -3870,7 +3870,7 @@
         <v>669133</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>630474</v>
+        <v>630186</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>711068</v>
@@ -3879,10 +3879,10 @@
         <v>0.4195670729461735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3953268992429226</v>
+        <v>0.3951460985166807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4458617776597765</v>
+        <v>0.4458616530607871</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>512480</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>486063</v>
+        <v>482787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540336</v>
+        <v>539208</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.622123234718941</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5900545737999938</v>
+        <v>0.5860774449669062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6559393089106796</v>
+        <v>0.6545705792041081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>407</v>
@@ -3920,19 +3920,19 @@
         <v>413205</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>384219</v>
+        <v>384600</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>442027</v>
+        <v>441831</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5358931552657685</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4983002443325512</v>
+        <v>0.4987941765342923</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5732723630147353</v>
+        <v>0.5730178836520967</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>889</v>
@@ -3944,16 +3944,16 @@
         <v>883750</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>964344</v>
+        <v>964632</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5804329270538265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5541382223402236</v>
+        <v>0.554138346939213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6046731007570775</v>
+        <v>0.6048539014833193</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>198517</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175362</v>
+        <v>176400</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218957</v>
+        <v>223675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3917827851599583</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3460863930947038</v>
+        <v>0.3481338806430824</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4321233730157902</v>
+        <v>0.4414329957527559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -4066,19 +4066,19 @@
         <v>213706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191902</v>
+        <v>191585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>237438</v>
+        <v>236710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4364041773031958</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3918772979165008</v>
+        <v>0.3912308200233772</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4848666883484916</v>
+        <v>0.4833796695137921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>375</v>
@@ -4087,19 +4087,19 @@
         <v>412223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>380608</v>
+        <v>380473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>443433</v>
+        <v>444251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4137127534619816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3819835890501621</v>
+        <v>0.3818488568432913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4450358537792302</v>
+        <v>0.4458568424633793</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>308184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>287744</v>
+        <v>283026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>331339</v>
+        <v>330301</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6082172148400418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5678766269842096</v>
+        <v>0.5585670042472441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6539136069052961</v>
+        <v>0.6518661193569169</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>264</v>
@@ -4137,19 +4137,19 @@
         <v>275992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>252260</v>
+        <v>252988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>297796</v>
+        <v>298113</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5635958226968042</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5151333116515084</v>
+        <v>0.5166203304862079</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6081227020834995</v>
+        <v>0.6087691799766228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>551</v>
@@ -4158,19 +4158,19 @@
         <v>584175</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>552965</v>
+        <v>552147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>615790</v>
+        <v>615925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5862872465380184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5549641462207701</v>
+        <v>0.5541431575366208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6180164109498378</v>
+        <v>0.6181511431567088</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1307246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1251115</v>
+        <v>1246666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1364269</v>
+        <v>1367825</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3882199174469771</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3715503502437026</v>
+        <v>0.3702292564561959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4051543847444516</v>
+        <v>0.4062102704192284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1514</v>
@@ -4283,19 +4283,19 @@
         <v>1686411</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1624901</v>
+        <v>1629606</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1743026</v>
+        <v>1745811</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4781715039554663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4607307383746927</v>
+        <v>0.4620645795834609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4942241207224204</v>
+        <v>0.4950138615235612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2768</v>
@@ -4304,19 +4304,19 @@
         <v>2993658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2906637</v>
+        <v>2918406</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3083605</v>
+        <v>3079467</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4342363280292497</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4216137094298933</v>
+        <v>0.4233209463458338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4472833675919781</v>
+        <v>0.4466830933084512</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2060036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2003013</v>
+        <v>1999457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2116167</v>
+        <v>2120616</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.611780082553023</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5948456152555485</v>
+        <v>0.5937897295807717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6284496497562975</v>
+        <v>0.6297707435438041</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1808</v>
@@ -4354,19 +4354,19 @@
         <v>1840381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1783766</v>
+        <v>1780981</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1901891</v>
+        <v>1897186</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5218284960445337</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5057758792775795</v>
+        <v>0.5049861384764388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5392692616253071</v>
+        <v>0.5379354204165391</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3759</v>
@@ -4375,19 +4375,19 @@
         <v>3900417</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3810470</v>
+        <v>3814608</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3987438</v>
+        <v>3975669</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5657636719707504</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5527166324080218</v>
+        <v>0.5533169066915488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5783862905701066</v>
+        <v>0.5766790536541663</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>257831</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>231657</v>
+        <v>233467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>283154</v>
+        <v>282988</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5212293835889545</v>
+        <v>0.5212293835889544</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4683163594708976</v>
+        <v>0.4719764132798153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5724231749060402</v>
+        <v>0.5720879986152105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>566</v>
@@ -4740,19 +4740,19 @@
         <v>367270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>344137</v>
+        <v>344952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>389327</v>
+        <v>390832</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5933228125742264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5559517645031372</v>
+        <v>0.5572681730974898</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6289543617269938</v>
+        <v>0.6313864540096903</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>834</v>
@@ -4761,19 +4761,19 @@
         <v>625101</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>593131</v>
+        <v>588500</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>660774</v>
+        <v>656762</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5613009200194031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5325940218566841</v>
+        <v>0.5284361951153879</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5933333047641303</v>
+        <v>0.5897311327080244</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>236828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211505</v>
+        <v>211671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263002</v>
+        <v>261192</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4787706164110456</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4275768250939599</v>
+        <v>0.4279120013847894</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5316836405291024</v>
+        <v>0.5280235867201847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>287</v>
@@ -4811,19 +4811,19 @@
         <v>251736</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>229679</v>
+        <v>228174</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>274869</v>
+        <v>274054</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4066771874257737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3710456382730061</v>
+        <v>0.3686135459903097</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4440482354968627</v>
+        <v>0.4427318269025103</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>470</v>
@@ -4832,19 +4832,19 @@
         <v>488563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>452890</v>
+        <v>456902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520533</v>
+        <v>525164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4386990799805969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4066666952358701</v>
+        <v>0.4102688672919756</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4674059781433159</v>
+        <v>0.4715638048846123</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>407998</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>374482</v>
+        <v>376807</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>442160</v>
+        <v>441989</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.42712694894139</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3920395907870699</v>
+        <v>0.3944743593051321</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.462890565800578</v>
+        <v>0.4627122149198661</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>985</v>
@@ -4957,19 +4957,19 @@
         <v>606772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>576428</v>
+        <v>575846</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>637911</v>
+        <v>636776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.546232789471395</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5189165295442291</v>
+        <v>0.5183922520998395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5742654558364662</v>
+        <v>0.5732433051785474</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1451</v>
@@ -4978,19 +4978,19 @@
         <v>1014769</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>967731</v>
+        <v>968738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1054610</v>
+        <v>1060665</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.49116544325676</v>
+        <v>0.4911654432567599</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4683983796265668</v>
+        <v>0.4688857194476864</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5104491385835289</v>
+        <v>0.513380148954521</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>547216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>513054</v>
+        <v>513225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>580732</v>
+        <v>578407</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.57287305105861</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5371094341994227</v>
+        <v>0.5372877850801338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.60796040921293</v>
+        <v>0.6055256406948679</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>614</v>
@@ -5028,19 +5028,19 @@
         <v>504058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472919</v>
+        <v>474054</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>534402</v>
+        <v>534984</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4537672105286049</v>
+        <v>0.453767210528605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.425734544163534</v>
+        <v>0.4267566948214527</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.481083470455771</v>
+        <v>0.4816077479001605</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1053</v>
@@ -5049,19 +5049,19 @@
         <v>1051274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1011433</v>
+        <v>1005378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1098312</v>
+        <v>1097305</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.50883455674324</v>
+        <v>0.5088345567432401</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4895508614164709</v>
+        <v>0.4866198510454787</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5316016203734331</v>
+        <v>0.5311142805523136</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>440314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>406398</v>
+        <v>407907</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>476698</v>
+        <v>475973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4213752095172419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3889177910228537</v>
+        <v>0.3903622058713336</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4561938981742784</v>
+        <v>0.4555008559631131</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>858</v>
@@ -5174,19 +5174,19 @@
         <v>518135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>489112</v>
+        <v>490648</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>548109</v>
+        <v>544709</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4955796516970146</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4678198063797532</v>
+        <v>0.469288817835746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5242483020051329</v>
+        <v>0.5209964368588825</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1350</v>
@@ -5195,19 +5195,19 @@
         <v>958449</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>912096</v>
+        <v>917138</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>999809</v>
+        <v>1002860</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4584875371588505</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.436313542056762</v>
+        <v>0.4387257259045894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4782724231542022</v>
+        <v>0.4797317375853059</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>604631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>568247</v>
+        <v>568972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>638547</v>
+        <v>637038</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5786247904827581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5438061018257216</v>
+        <v>0.5444991440368865</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6110822089771462</v>
+        <v>0.6096377941286663</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>654</v>
@@ -5245,19 +5245,19 @@
         <v>527379</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>497405</v>
+        <v>500805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>556402</v>
+        <v>554866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5044203483029854</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4757516979948669</v>
+        <v>0.4790035631411173</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5321801936202468</v>
+        <v>0.5307111821642539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1189</v>
@@ -5266,19 +5266,19 @@
         <v>1132010</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1090650</v>
+        <v>1087599</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1178363</v>
+        <v>1173321</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5415124628411494</v>
+        <v>0.5415124628411495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5217275768457978</v>
+        <v>0.5202682624146941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5636864579432382</v>
+        <v>0.5612742740954109</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>472099</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>435601</v>
+        <v>440825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>506634</v>
+        <v>509134</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4867554814507278</v>
+        <v>0.4867554814507277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.449123685239462</v>
+        <v>0.4545099425024375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5223625663791559</v>
+        <v>0.5249400815607927</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>732</v>
@@ -5391,19 +5391,19 @@
         <v>456768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>430291</v>
+        <v>429125</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>484294</v>
+        <v>485689</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.5056567642792813</v>
+        <v>0.5056567642792814</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4763451467021305</v>
+        <v>0.4750543461870187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5361288157526273</v>
+        <v>0.5376733554592844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1225</v>
@@ -5412,19 +5412,19 @@
         <v>928868</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>887570</v>
+        <v>884435</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>975755</v>
+        <v>969927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4958702526733266</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.473823593577038</v>
+        <v>0.4721500321873121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.520900689248912</v>
+        <v>0.51778955188987</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>497791</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463256</v>
+        <v>460756</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>534289</v>
+        <v>529065</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5132445185492723</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.477637433620844</v>
+        <v>0.4750599184392073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.550876314760538</v>
+        <v>0.5454900574975625</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>581</v>
@@ -5462,19 +5462,19 @@
         <v>446549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>419023</v>
+        <v>417628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>473026</v>
+        <v>474192</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4943432357207185</v>
+        <v>0.4943432357207186</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4638711842473724</v>
+        <v>0.4623266445407156</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5236548532978694</v>
+        <v>0.5249456538129812</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1029</v>
@@ -5483,19 +5483,19 @@
         <v>944339</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>897452</v>
+        <v>903280</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>985637</v>
+        <v>988772</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5041297473266734</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.479099310751088</v>
+        <v>0.4822104481101301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5261764064229619</v>
+        <v>0.5278499678126879</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1578241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1514469</v>
+        <v>1511849</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1647474</v>
+        <v>1642510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4555193785939761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4371130290191187</v>
+        <v>0.4363568295529608</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4755015635904819</v>
+        <v>0.4740688821804122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3141</v>
@@ -5608,19 +5608,19 @@
         <v>1948946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1894522</v>
+        <v>1895177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2001063</v>
+        <v>2005032</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5297967785953031</v>
+        <v>0.5297967785953032</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5150024067999034</v>
+        <v>0.5151804079266281</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5439641468428945</v>
+        <v>0.5450430761205604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4860</v>
@@ -5629,19 +5629,19 @@
         <v>3527187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3442983</v>
+        <v>3443014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3609324</v>
+        <v>3610936</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4937704646108301</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4819827790405573</v>
+        <v>0.4819871864867172</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5052688545626914</v>
+        <v>0.5054945591579219</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1886466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1817233</v>
+        <v>1822197</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1950238</v>
+        <v>1952858</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5444806214060238</v>
+        <v>0.544480621406024</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5244984364095181</v>
+        <v>0.5259311178195877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5628869709808809</v>
+        <v>0.5636431704470387</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2136</v>
@@ -5679,19 +5679,19 @@
         <v>1729721</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1677604</v>
+        <v>1673635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1784145</v>
+        <v>1783490</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.470203221404697</v>
+        <v>0.4702032214046969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4560358531571056</v>
+        <v>0.4549569238794398</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4849975932000968</v>
+        <v>0.4848195920733719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3741</v>
@@ -5700,19 +5700,19 @@
         <v>3616186</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3534049</v>
+        <v>3532437</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3700390</v>
+        <v>3700359</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5062295353891698</v>
+        <v>0.50622953538917</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4947311454373083</v>
+        <v>0.494505440842078</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5180172209594426</v>
+        <v>0.5180128135132827</v>
       </c>
     </row>
     <row r="18">
